--- a/biology/Zoologie/Clement_Samuel_Brimley/Clement_Samuel_Brimley.xlsx
+++ b/biology/Zoologie/Clement_Samuel_Brimley/Clement_Samuel_Brimley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clement Samuel Brimley est un zoologiste autodidacte américain né le 18 décembre 1863 en Angleterre et mort le 23 juillet 1946 à Raleigh en Caroline du Nord.
 Il a travaillé au North Carolina Museum of Natural Sciences. Son frère Herbert Hutchinson Brimley, également zoologiste a longtemps été directeur de ce muséum.
@@ -512,7 +524,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pseudacris brimleyi Brandt &amp; Walker, 1933, appelée communément Brimley's Chorus Frog en anglais.
 Desmognathus brimleyorum Stejneger, 1895 (dédié aussi à Herbert Hutchinson Brimley)</t>
@@ -543,7 +557,9 @@
           <t>Taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Necturus lewisi Brimley, 1924
 Plethodon metcalfi  Brimley, 1912</t>
@@ -574,7 +590,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Brimley, 1907 : Artificial Key to the Species of Snakes and Lizards which are Found in North Carolina. Journal of the Elisha Mitchell Scientific Society, vol. 23, p. 141-149 (texte intégral).
 Brimley, 1907 : The Salamanders of North Carolina. Journal of the Elisha Mitchell Scientific Society, vol. 23, p. 150-156 (texte intégral).
@@ -612,7 +630,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Clement Samuel Brimley » (voir la liste des auteurs).</t>
         </is>
